--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3489107.132158556</v>
+        <v>3490867.662461341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>225.134677241128</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.31870353900228</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>174.3070570482425</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>83.43224246993414</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.29473855902101</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>21.77034978617706</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>107.1258713709633</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>102.50650946411</v>
+        <v>147.6357361135211</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300.7153152470513</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54915978824949</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>194.9747007711286</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.0626477516127</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.602666125651</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>123.4611042028436</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.83148240826939</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.799772605716619</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>96.99837838564352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>127.5379405516743</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>41.55695577161242</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.58885292963951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>2.445727774094098</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060644</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.4256445709457</v>
+        <v>534.7928453799743</v>
       </c>
       <c r="C2" t="n">
-        <v>432.4256445709457</v>
+        <v>268.4151888127967</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276839</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276839</v>
       </c>
       <c r="F2" t="n">
-        <v>159.1024872545643</v>
+        <v>34.06092317356492</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>801.1705019471519</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>801.1705019471519</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709457</v>
+        <v>801.1705019471519</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709457</v>
+        <v>801.1705019471519</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709457</v>
+        <v>534.7928453799743</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004794</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699335</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.87400723023</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267537</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293586</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560883</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496282</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="V3" t="n">
-        <v>573.2316820178855</v>
+        <v>801.3675279810707</v>
       </c>
       <c r="W3" t="n">
-        <v>397.1639476257213</v>
+        <v>547.1301712528691</v>
       </c>
       <c r="X3" t="n">
-        <v>189.3124474201885</v>
+        <v>339.2786710473363</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>131.5183722823824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>744.4145270104677</v>
+        <v>424.424925134236</v>
       </c>
       <c r="C4" t="n">
-        <v>575.4783440825609</v>
+        <v>255.4887422063291</v>
       </c>
       <c r="D4" t="n">
-        <v>425.3617046702251</v>
+        <v>105.3721027939933</v>
       </c>
       <c r="E4" t="n">
-        <v>277.448611087832</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F4" t="n">
-        <v>130.5586635899216</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G4" t="n">
-        <v>130.5586635899216</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H4" t="n">
-        <v>130.5586635899216</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287936</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726550998</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375323</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227033</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075528</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="X4" t="n">
-        <v>926.0629918407075</v>
+        <v>826.8659691080059</v>
       </c>
       <c r="Y4" t="n">
-        <v>926.0629918407075</v>
+        <v>606.0733899644757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>248.7770495552873</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>943.6469137265115</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>943.6469137265115</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>677.2692571593335</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.8916005921556</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217.5403919905173</v>
+        <v>452.6925002222598</v>
       </c>
       <c r="C6" t="n">
-        <v>43.08736270939025</v>
+        <v>278.2394709411327</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>129.3050612798814</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4646,52 +4646,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X6" t="n">
-        <v>593.5160277755392</v>
+        <v>828.6681360072816</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.7557290105853</v>
+        <v>620.9078372423278</v>
       </c>
     </row>
     <row r="7">
@@ -4707,67 +4707,67 @@
         <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>184.234647516738</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X7" t="n">
-        <v>684.9359346872203</v>
+        <v>905.7285138307504</v>
       </c>
       <c r="Y7" t="n">
         <v>684.9359346872203</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.839042069394</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>813.8765251289826</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6108265222321</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398787</v>
+        <v>473.8629779643921</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478441</v>
+        <v>62.8770731747846</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607437</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045951</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940601</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.49987299921</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729096</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729096</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1486.591885753284</v>
+        <v>1973.47928617392</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010759</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199489</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586976</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532421</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801271</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763153</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>167.3422431396337</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572706</v>
+        <v>613.7598241331862</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907518</v>
+        <v>908.295807566668</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1271.36227604097</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337622</v>
+        <v>1658.44667851354</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325011</v>
+        <v>1990.33348850093</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2237.368846930555</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.1540250450086</v>
+        <v>642.88535719297</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2178421171017</v>
+        <v>473.9491742650631</v>
       </c>
       <c r="D10" t="n">
-        <v>198.101202704766</v>
+        <v>323.8325348527273</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>175.9194412703342</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380141</v>
+        <v>76.63468308380182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1578.363607691231</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1578.363607691231</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1289.245234185873</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1034.560745979986</v>
+        <v>1381.084657271478</v>
       </c>
       <c r="W10" t="n">
-        <v>745.1435759430259</v>
+        <v>1091.667487234517</v>
       </c>
       <c r="X10" t="n">
-        <v>517.1540250450086</v>
+        <v>863.6779363365001</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.1540250450086</v>
+        <v>642.88535719297</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>277.5052172074025</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>135.7933860496006</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2194.592113392523</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6730,16 +6730,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,25 +7238,25 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,16 +7435,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
@@ -7478,16 +7478,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.6725264685175</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406107</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282751</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216012</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238954</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583152</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377265</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340304</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442287</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987571</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961068995</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446515</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977365101</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094954</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348513</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405072</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>53.48834544997025</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.7088805469531</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.2431272522978</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>63.36835372228752</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>214.9597225531942</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.505489761038</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>759463.6371244616</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911393</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101745</v>
+        <v>95270.23779101817</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.893290453341564e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608932</v>
+        <v>138058.0537608926</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26435,31 +26435,31 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768894</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.14432176901</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233110.1130017021</v>
+        <v>-233110.1130017017</v>
       </c>
       <c r="C6" t="n">
-        <v>446977.867589491</v>
+        <v>446977.8675894912</v>
       </c>
       <c r="D6" t="n">
-        <v>137822.7081298113</v>
+        <v>137822.7081298097</v>
       </c>
       <c r="E6" t="n">
-        <v>127284.3192525281</v>
+        <v>127596.960581452</v>
       </c>
       <c r="F6" t="n">
-        <v>635193.5513132224</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="G6" t="n">
-        <v>635193.5513132219</v>
+        <v>635506.1926421439</v>
       </c>
       <c r="H6" t="n">
-        <v>635193.5513132224</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="I6" t="n">
-        <v>635193.5513132225</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="J6" t="n">
-        <v>566194.3968941085</v>
+        <v>566507.0382230297</v>
       </c>
       <c r="K6" t="n">
-        <v>635193.5513132224</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="L6" t="n">
-        <v>539923.3135222052</v>
+        <v>540235.9548511254</v>
       </c>
       <c r="M6" t="n">
-        <v>502475.5756177531</v>
+        <v>502788.2169466749</v>
       </c>
       <c r="N6" t="n">
-        <v>635193.5513132226</v>
+        <v>635506.1926421435</v>
       </c>
       <c r="O6" t="n">
-        <v>635193.5513132222</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="P6" t="n">
-        <v>635193.5513132229</v>
+        <v>635506.1926421437</v>
       </c>
     </row>
   </sheetData>
@@ -26721,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.366613066676955e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.6474457933062</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695018</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>129.5483643795549</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.5154711067077</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545478</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>57.21613438642808</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>77.38792611267706</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.00172017663503</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>28.85583496578752</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>217.6557382534169</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>125.6747157784617</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>50.51920908443761</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.2031459249271</v>
+        <v>78.073919275516</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.01852641642927</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>174.7563999073405</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164532366</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.77644916452283</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.95994382008763</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>137.8423678421151</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.697148616009572e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30519,10 +30519,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.489506531956381e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.05846366154608e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503479</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127164</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966395</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127579</v>
+        <v>117.3040282149271</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772537</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899239</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>326.4584983961981</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059035</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
